--- a/data/midwifery_center/data.xlsx
+++ b/data/midwifery_center/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\51481\Desktop\オープンデータ\助産所(0115）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\51481\Desktop\オープンデータ\助産所\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$13</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="97">
   <si>
     <t>№</t>
   </si>
@@ -54,9 +57,6 @@
     <t>助産行為有</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>西原母乳育児相談所</t>
   </si>
   <si>
@@ -84,36 +84,9 @@
     <t>0</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>松本助産院</t>
-  </si>
-  <si>
-    <t>松本　弘子</t>
-  </si>
-  <si>
-    <t>34.287855</t>
-  </si>
-  <si>
-    <t>134.099699</t>
-  </si>
-  <si>
-    <t>香川県高松市小村町字本村４４８番地４</t>
-  </si>
-  <si>
-    <t>087-840-7701</t>
-  </si>
-  <si>
-    <t>2000/6/26</t>
-  </si>
-  <si>
     <t>○</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>特定非営利活動法人いのちの応援舎ぼっこ助産院</t>
   </si>
   <si>
@@ -141,27 +114,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>育児サポートははこぐさ</t>
-  </si>
-  <si>
-    <t>矢野 真知子</t>
-  </si>
-  <si>
-    <t>34.335708</t>
-  </si>
-  <si>
-    <t>134.147161</t>
-  </si>
-  <si>
-    <t>香川県高松市牟礼町大町１３４４番地１</t>
-  </si>
-  <si>
-    <t>087-845-9280</t>
-  </si>
-  <si>
     <t>2007/2/1</t>
   </si>
   <si>
@@ -183,9 +135,6 @@
     <t>087-845-7801</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>松木母乳育児相談室</t>
   </si>
   <si>
@@ -207,9 +156,6 @@
     <t>2009/10/1</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>横井母乳育児相談室</t>
   </si>
   <si>
@@ -231,9 +177,6 @@
     <t>2013/8/1</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>めぐみ助産院</t>
   </si>
   <si>
@@ -255,9 +198,6 @@
     <t>2016/7/15</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>訪問相談専門助産院つなぐ「眞」</t>
   </si>
   <si>
@@ -279,9 +219,6 @@
     <t>2018/5/1</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>ｋｉ：ｎｏ助産院</t>
   </si>
   <si>
@@ -303,18 +240,12 @@
     <t>2022/4/12</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>助産院𣜿ゆずりは</t>
   </si>
   <si>
     <t>加藤　淑美</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>もものはな助産院</t>
   </si>
   <si>
@@ -336,9 +267,6 @@
     <t>2022/7/8</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>実（みのり）助産院</t>
   </si>
   <si>
@@ -358,9 +286,6 @@
   </si>
   <si>
     <t>2024/3/15</t>
-  </si>
-  <si>
-    <t>14</t>
   </si>
   <si>
     <t>ひとみ助産院</t>
@@ -450,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -484,11 +409,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -826,16 +765,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="3.796875" style="15" customWidth="1"/>
     <col min="2" max="2" width="47.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.3984375" bestFit="1" customWidth="1"/>
@@ -849,7 +789,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -884,49 +824,49 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>23</v>
@@ -947,430 +887,360 @@
         <v>28</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>30</v>
+      <c r="A4" s="14">
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="J5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>39</v>
+      <c r="A6" s="14">
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="J6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="J7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="J8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="J9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>13</v>
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="8">
+        <v>34.297885000000001</v>
+      </c>
+      <c r="F10" s="9">
+        <v>134.065202</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="10">
+        <v>45502</v>
+      </c>
+      <c r="J10" s="11">
+        <v>3</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>86</v>
+      <c r="A11" s="14">
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>90</v>
+        <v>75</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="8">
-        <v>34.297885000000001</v>
-      </c>
-      <c r="F12" s="9">
-        <v>134.065202</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I12" s="10">
-        <v>45502</v>
-      </c>
-      <c r="J12" s="11">
-        <v>3</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>13</v>
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>97</v>
+      <c r="A13" s="14">
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1378,7 +1248,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:K11 A13:K15 A12:D12 K12" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:K1 B11:K13 B10:D10 K10 B4:K9 B3:K3 B2:K2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/midwifery_center/data.xlsx
+++ b/data/midwifery_center/data.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\51481\Desktop\オープンデータ\助産所\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\52845\デスクトップ\オープンデータ更新（一時保管）\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C562F3D6-EFB5-4B7B-A605-6EA7A224B34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$13</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
   <si>
     <t>№</t>
   </si>
@@ -57,6 +55,9 @@
     <t>助産行為有</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>西原母乳育児相談所</t>
   </si>
   <si>
@@ -84,55 +85,58 @@
     <t>0</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>特定非営利活動法人いのちの応援舎ぼっこ助産院</t>
+  </si>
+  <si>
+    <t>理事長　松尾　真理</t>
+  </si>
+  <si>
+    <t>特定非営利活動法人いのちの応援舎　</t>
+  </si>
+  <si>
+    <t>34.332435</t>
+  </si>
+  <si>
+    <t>134.097244</t>
+  </si>
+  <si>
+    <t>香川県高松市春日町１１７６番地</t>
+  </si>
+  <si>
+    <t>087-844-4103</t>
+  </si>
+  <si>
+    <t>2007/1/1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>○</t>
   </si>
   <si>
-    <t>特定非営利活動法人いのちの応援舎ぼっこ助産院</t>
-  </si>
-  <si>
-    <t>理事長　松尾　真理</t>
-  </si>
-  <si>
-    <t>特定非営利活動法人いのちの応援舎　</t>
-  </si>
-  <si>
-    <t>34.332435</t>
-  </si>
-  <si>
-    <t>134.097244</t>
-  </si>
-  <si>
-    <t>香川県高松市春日町１１７６番地</t>
-  </si>
-  <si>
-    <t>087-844-4103</t>
-  </si>
-  <si>
-    <t>2007/1/1</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>マミーズケア ＆サポート城下</t>
+  </si>
+  <si>
+    <t>城下 利香</t>
+  </si>
+  <si>
+    <t>香川県高松市牟礼町</t>
+  </si>
+  <si>
+    <t>080-2992-2255</t>
   </si>
   <si>
     <t>2007/2/1</t>
   </si>
   <si>
-    <t>マミーズケア ＆サポート城下</t>
-  </si>
-  <si>
-    <t>城下 利香</t>
-  </si>
-  <si>
-    <t>34.345987</t>
-  </si>
-  <si>
-    <t>134.129628</t>
-  </si>
-  <si>
-    <t>香川県高松市牟礼町牟礼２０４２番地６</t>
-  </si>
-  <si>
-    <t>087-845-7801</t>
+    <t>4</t>
   </si>
   <si>
     <t>松木母乳育児相談室</t>
@@ -177,6 +181,9 @@
     <t>2013/8/1</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>めぐみ助産院</t>
   </si>
   <si>
@@ -198,6 +205,9 @@
     <t>2016/7/15</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>訪問相談専門助産院つなぐ「眞」</t>
   </si>
   <si>
@@ -219,6 +229,9 @@
     <t>2018/5/1</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>ｋｉ：ｎｏ助産院</t>
   </si>
   <si>
@@ -240,12 +253,33 @@
     <t>2022/4/12</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>助産院𣜿ゆずりは</t>
   </si>
   <si>
     <t>加藤　淑美</t>
   </si>
   <si>
+    <t>34.297885</t>
+  </si>
+  <si>
+    <t>134.065202</t>
+  </si>
+  <si>
+    <t>香川県高松市林町778-7</t>
+  </si>
+  <si>
+    <t>080-5828-0058</t>
+  </si>
+  <si>
+    <t>7/29/24</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>もものはな助産院</t>
   </si>
   <si>
@@ -267,6 +301,9 @@
     <t>2022/7/8</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>実（みのり）助産院</t>
   </si>
   <si>
@@ -288,6 +325,9 @@
     <t>2024/3/15</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>ひとみ助産院</t>
   </si>
   <si>
@@ -309,21 +349,34 @@
     <t>2024/6/6</t>
   </si>
   <si>
-    <t>香川県高松市林町778-7</t>
-    <rPh sb="6" eb="8">
-      <t>ハヤシマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>080-5828-0058</t>
-    <phoneticPr fontId="1"/>
+    <t>13</t>
+  </si>
+  <si>
+    <t>のぐち助産院『ぴゅあ』</t>
+  </si>
+  <si>
+    <t>野口　純子</t>
+  </si>
+  <si>
+    <t>34.23897</t>
+  </si>
+  <si>
+    <t>134.01062</t>
+  </si>
+  <si>
+    <t>高松市香南町由佐１３９６番地４</t>
+  </si>
+  <si>
+    <t>080-2984-0453</t>
+  </si>
+  <si>
+    <t>2025/5/20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -340,15 +393,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -356,78 +415,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -761,494 +760,509 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:K13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.796875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="47.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>12</v>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="8">
-        <v>34.297885000000001</v>
-      </c>
-      <c r="F10" s="9">
-        <v>134.065202</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="E12" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="10">
-        <v>45502</v>
-      </c>
-      <c r="J10" s="11">
-        <v>3</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>12</v>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:K1 B11:K13 B10:D10 K10 B4:K9 B3:K3 B2:K2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:K13 A14:K14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/midwifery_center/data.xlsx
+++ b/data/midwifery_center/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\52845\デスクトップ\オープンデータ更新（一時保管）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C562F3D6-EFB5-4B7B-A605-6EA7A224B34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBA64DC-DDBB-4D3A-96FF-5375F0E6992C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="126">
   <si>
     <t>№</t>
   </si>
@@ -55,6 +55,9 @@
     <t>助産行為有</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -371,6 +374,30 @@
   </si>
   <si>
     <t>2025/5/20</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>はる助産院</t>
+  </si>
+  <si>
+    <t>堤　留美</t>
+  </si>
+  <si>
+    <t>34.28338</t>
+  </si>
+  <si>
+    <t>134.09670</t>
+  </si>
+  <si>
+    <t>高松市小村町２４６－７</t>
+  </si>
+  <si>
+    <t>090-4086-0602</t>
+  </si>
+  <si>
+    <t>2025/6/2</t>
   </si>
 </sst>
 </file>
@@ -393,18 +420,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -421,7 +442,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -761,18 +782,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -806,463 +824,499 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" t="s">
-        <v>32</v>
-      </c>
       <c r="K10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
+      <c r="B14" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" t="s">
         <v>113</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="G14" t="s">
         <v>115</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="H14" t="s">
         <v>116</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="1"/>
+      <c r="I14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:K13 A14:K14" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:L14 A15:K15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/midwifery_center/data.xlsx
+++ b/data/midwifery_center/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\52845\デスクトップ\オープンデータ更新（一時保管）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\52845\デスクトップ\五藤\2. HP関係\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBA64DC-DDBB-4D3A-96FF-5375F0E6992C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7046E917-5790-454A-8402-3E7F9B9906CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="133">
   <si>
     <t>№</t>
   </si>
@@ -235,169 +235,190 @@
     <t>8</t>
   </si>
   <si>
-    <t>ｋｉ：ｎｏ助産院</t>
+    <t>ki:no　Jicca　多賀助産院</t>
+  </si>
+  <si>
+    <t>清水　鈴華</t>
+  </si>
+  <si>
+    <t>34.33693</t>
+  </si>
+  <si>
+    <t>134.06207</t>
+  </si>
+  <si>
+    <t>高松市多賀町三丁目１１－３</t>
+  </si>
+  <si>
+    <t>087-800-0312</t>
+  </si>
+  <si>
+    <t>2025/11/10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>助産院𣜿ゆずりは</t>
+  </si>
+  <si>
+    <t>加藤　淑美</t>
+  </si>
+  <si>
+    <t>34.297885</t>
+  </si>
+  <si>
+    <t>134.065202</t>
+  </si>
+  <si>
+    <t>香川県高松市林町778-7</t>
+  </si>
+  <si>
+    <t>080-5828-0058</t>
+  </si>
+  <si>
+    <t>7/29/24</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>もものはな助産院</t>
+  </si>
+  <si>
+    <t>芳賀　枝里子</t>
+  </si>
+  <si>
+    <t>34.332499</t>
+  </si>
+  <si>
+    <t>133.993401</t>
+  </si>
+  <si>
+    <t>香川県高松市鬼無町佐料１３９番地１</t>
+  </si>
+  <si>
+    <t>090-7784-6014</t>
+  </si>
+  <si>
+    <t>2022/7/8</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>実（みのり）助産院</t>
+  </si>
+  <si>
+    <t>牟禮　実里</t>
+  </si>
+  <si>
+    <t>34.330182</t>
+  </si>
+  <si>
+    <t>134.137239</t>
+  </si>
+  <si>
+    <t>香川県高松市牟礼町大町１９７３番地２</t>
+  </si>
+  <si>
+    <t>090-4275-7258</t>
+  </si>
+  <si>
+    <t>2024/3/15</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>ひとみ助産院</t>
+  </si>
+  <si>
+    <t>篠原　ひとみ</t>
+  </si>
+  <si>
+    <t>34.335006</t>
+  </si>
+  <si>
+    <t>134.043063</t>
+  </si>
+  <si>
+    <t>香川県高松市中野町13番5号</t>
+  </si>
+  <si>
+    <t>080-5614-4015</t>
+  </si>
+  <si>
+    <t>2024/6/6</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>のぐち助産院『ぴゅあ』</t>
+  </si>
+  <si>
+    <t>野口　純子</t>
+  </si>
+  <si>
+    <t>34.23897</t>
+  </si>
+  <si>
+    <t>134.01062</t>
+  </si>
+  <si>
+    <t>高松市香南町由佐１３９６番地４</t>
+  </si>
+  <si>
+    <t>080-2984-0453</t>
+  </si>
+  <si>
+    <t>2025/5/20</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>はる助産院</t>
+  </si>
+  <si>
+    <t>堤　留美</t>
+  </si>
+  <si>
+    <t>34.28338</t>
+  </si>
+  <si>
+    <t>134.09670</t>
+  </si>
+  <si>
+    <t>高松市小村町２４６−７</t>
+  </si>
+  <si>
+    <t>090-4086-0602</t>
+  </si>
+  <si>
+    <t>2025/6/2</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>ki:no　助産院　３０３５noie</t>
   </si>
   <si>
     <t>新　季里</t>
   </si>
   <si>
-    <t>34.337143</t>
-  </si>
-  <si>
-    <t>134.061976</t>
-  </si>
-  <si>
-    <t>香川県高松市多賀町三丁目１１番３号</t>
+    <t>34.32054</t>
+  </si>
+  <si>
+    <t>134.05502</t>
+  </si>
+  <si>
+    <t>高松市伏石町２００７－１３</t>
   </si>
   <si>
     <t>080-5229-3035</t>
-  </si>
-  <si>
-    <t>2022/4/12</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>助産院𣜿ゆずりは</t>
-  </si>
-  <si>
-    <t>加藤　淑美</t>
-  </si>
-  <si>
-    <t>34.297885</t>
-  </si>
-  <si>
-    <t>134.065202</t>
-  </si>
-  <si>
-    <t>香川県高松市林町778-7</t>
-  </si>
-  <si>
-    <t>080-5828-0058</t>
-  </si>
-  <si>
-    <t>7/29/24</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>もものはな助産院</t>
-  </si>
-  <si>
-    <t>芳賀　枝里子</t>
-  </si>
-  <si>
-    <t>34.332499</t>
-  </si>
-  <si>
-    <t>133.993401</t>
-  </si>
-  <si>
-    <t>香川県高松市鬼無町佐料１３９番地１</t>
-  </si>
-  <si>
-    <t>090-7784-6014</t>
-  </si>
-  <si>
-    <t>2022/7/8</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>実（みのり）助産院</t>
-  </si>
-  <si>
-    <t>牟禮　実里</t>
-  </si>
-  <si>
-    <t>34.330182</t>
-  </si>
-  <si>
-    <t>134.137239</t>
-  </si>
-  <si>
-    <t>香川県高松市牟礼町大町１９７３番地２</t>
-  </si>
-  <si>
-    <t>090-4275-7258</t>
-  </si>
-  <si>
-    <t>2024/3/15</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>ひとみ助産院</t>
-  </si>
-  <si>
-    <t>篠原　ひとみ</t>
-  </si>
-  <si>
-    <t>34.335006</t>
-  </si>
-  <si>
-    <t>134.043063</t>
-  </si>
-  <si>
-    <t>香川県高松市中野町13番5号</t>
-  </si>
-  <si>
-    <t>080-5614-4015</t>
-  </si>
-  <si>
-    <t>2024/6/6</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>のぐち助産院『ぴゅあ』</t>
-  </si>
-  <si>
-    <t>野口　純子</t>
-  </si>
-  <si>
-    <t>34.23897</t>
-  </si>
-  <si>
-    <t>134.01062</t>
-  </si>
-  <si>
-    <t>高松市香南町由佐１３９６番地４</t>
-  </si>
-  <si>
-    <t>080-2984-0453</t>
-  </si>
-  <si>
-    <t>2025/5/20</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>はる助産院</t>
-  </si>
-  <si>
-    <t>堤　留美</t>
-  </si>
-  <si>
-    <t>34.28338</t>
-  </si>
-  <si>
-    <t>134.09670</t>
-  </si>
-  <si>
-    <t>高松市小村町２４６－７</t>
-  </si>
-  <si>
-    <t>090-4086-0602</t>
-  </si>
-  <si>
-    <t>2025/6/2</t>
   </si>
 </sst>
 </file>
@@ -420,12 +441,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -442,7 +469,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -782,15 +809,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A16" sqref="A16:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -828,7 +855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -862,8 +889,11 @@
       <c r="K2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -897,8 +927,11 @@
       <c r="K3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -932,8 +965,11 @@
       <c r="K4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -967,8 +1003,11 @@
       <c r="K5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1002,8 +1041,11 @@
       <c r="K6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1037,8 +1079,11 @@
       <c r="K7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1072,12 +1117,15 @@
       <c r="K8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>70</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C9" t="s">
@@ -1107,8 +1155,11 @@
       <c r="K9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -1142,8 +1193,11 @@
       <c r="K10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -1177,8 +1231,11 @@
       <c r="K11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -1212,8 +1269,11 @@
       <c r="K12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -1247,8 +1307,11 @@
       <c r="K13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -1282,13 +1345,19 @@
       <c r="K14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>120</v>
@@ -1310,13 +1379,51 @@
       </c>
       <c r="J15" t="s">
         <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:L14 A15:K15" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:L16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>